--- a/frappe/core/doctype/data_import/test_data/test_xlsx_template.xlsx
+++ b/frappe/core/doctype/data_import/test_data/test_xlsx_template.xlsx
@@ -403,10 +403,10 @@
     <t xml:space="preserve">Start entering data below this line</t>
   </si>
   <si>
-    <t xml:space="preserve">"test0030@gmail.com"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test0030@gmail.com</t>
+    <t xml:space="preserve">"test1030@gmail.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1030@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test3</t>
@@ -439,10 +439,10 @@
     <t xml:space="preserve">Website User</t>
   </si>
   <si>
-    <t xml:space="preserve">"test0020@gmail.com"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test0020@gmail.com</t>
+    <t xml:space="preserve">"test1020@gmail.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1020@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test2</t>
@@ -457,10 +457,10 @@
     <t xml:space="preserve">9852145632</t>
   </si>
   <si>
-    <t xml:space="preserve">"test0010@gmail.com"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test0010@gmail.com</t>
+    <t xml:space="preserve">"test1010@gmail.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1010@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test1</t>
@@ -572,13 +572,16 @@
   </sheetPr>
   <dimension ref="A1:AU65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.82995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
